--- a/xlsx/威斯特伐利亚和约_intext.xlsx
+++ b/xlsx/威斯特伐利亚和约_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="245">
   <si>
     <t>威斯特伐利亚和约</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%81%96%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>神聖羅馬帝國</t>
+    <t>神圣罗马帝国</t>
   </si>
   <si>
     <t>政策_政策_政治_威斯特伐利亚和约</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%81%96%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B%E7%9A%87%E5%B8%9D</t>
   </si>
   <si>
-    <t>神聖羅馬帝國皇帝</t>
+    <t>神圣罗马帝国皇帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E8%BF%AA%E5%8D%97%E4%B8%89%E4%B8%96_(%E7%A5%9E%E5%9C%A3%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD)</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西王國</t>
+    <t>法兰西王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>瑞典帝國</t>
+    <t>瑞典帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>荷蘭共和國</t>
+    <t>荷兰共和国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Princes_of_the_Holy_Roman_Empire</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%96%AF%E7%89%B9%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>明斯特和約</t>
+    <t>明斯特和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%8D%81%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>八十年戰爭</t>
+    <t>八十年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9B%BD%E5%AE%B6</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E7%89%9B%E6%96%AF%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>比利牛斯條約</t>
+    <t>比利牛斯条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%A0%BC%E6%96%AF%E5%A0%A1%E5%AE%97%E6%95%99%E5%92%8C%E7%BA%A6</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B8%E6%AD%A3%E5%AE%97</t>
   </si>
   <si>
-    <t>歸正宗</t>
+    <t>归正宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%BE%A9%E5%AE%97</t>
   </si>
   <si>
-    <t>信義宗</t>
+    <t>信义宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E4%BC%8F%E4%BE%9D%E5%85%AC%E5%9B%BD</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%9C%96%E4%BA%9E%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>曼圖亞公國</t>
+    <t>曼图亚公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%96%AF%E5%8D%A1%E7%BA%B3%E5%A4%A7%E5%85%AC%E5%9B%BD</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%BE%B7%E7%B4%8D%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>摩德納公國</t>
+    <t>摩德纳公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%88%BE%E7%91%AA%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>帕爾瑪公國</t>
+    <t>帕尔玛公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%98%AD%E7%99%BB%E5%A0%A1-%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>勃蘭登堡-普魯士</t>
+    <t>勃兰登堡-普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%B3%A2%E7%BE%8E%E6%8B%89%E5%B0%BC%E4%BA%9A</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%A0%BC%E5%BE%B7%E5%A0%A1</t>
   </si>
   <si>
-    <t>馬格德堡</t>
+    <t>马格德堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%88%BE%E4%BC%AF%E6%96%BD%E5%A1%94%E7%89%B9</t>
   </si>
   <si>
-    <t>哈爾伯施塔特</t>
+    <t>哈尔伯施塔特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E7%99%BB</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E6%A3%AE</t>
   </si>
   <si>
-    <t>薩克森</t>
+    <t>萨克森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E8%90%A8%E8%92%82%E4%BA%9A</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%90%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>巴伐利亞</t>
+    <t>巴伐利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E8%8C%B5%E5%85%B0-%E6%99%AE%E6%B3%95%E5%B0%94%E8%8C%A8</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E5%B8%9D%E4%BE%AF</t>
   </si>
   <si>
-    <t>選帝侯</t>
+    <t>选帝侯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%93%E7%89%B9%E7%83%88%E4%BA%94%E4%B8%96_(%E6%99%AE%E6%B3%95%E5%B0%94%E8%8C%A8)</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%95%99%E5%BB%B7</t>
   </si>
   <si>
-    <t>羅馬教廷</t>
+    <t>罗马教廷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%9A%87</t>
@@ -443,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AB%BE%E6%A3%AE%E5%8D%81%E4%B8%96</t>
   </si>
   <si>
-    <t>英諾森十世</t>
+    <t>英诺森十世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>普魯士</t>
+    <t>普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%B2%81%E5%A3%AB%E5%85%AC%E5%9B%BD</t>
@@ -461,85 +461,79 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%98%AD%E7%99%BB%E5%A0%A1%E4%BE%AF%E5%9C%8B</t>
   </si>
   <si>
-    <t>勃蘭登堡侯國</t>
+    <t>勃兰登堡侯国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E7%89%B9%E4%BC%90%E5%88%A9%E4%BA%9E%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>威斯特伐利亞和約</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E6%81%A9%E5%A0%A1%E5%92%8C%E6%AF%94%E4%BD%99%E6%89%98%E5%A4%AB%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>勞恩堡和比余托夫地區</t>
+    <t>劳恩堡和比馀托夫地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>德國殖民地</t>
+    <t>德国殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E9%87%91</t>
   </si>
   <si>
-    <t>阿爾金</t>
+    <t>阿尔金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%9C%96%E6%8B%89</t>
   </si>
   <si>
-    <t>托圖拉</t>
+    <t>托图拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>普魯士王國</t>
+    <t>普鲁士王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%B2%99%E6%B3%B0%E7%88%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>納沙泰爾州</t>
+    <t>纳沙泰尔州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%BE%97%E5%8B%92%E6%94%AF%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>烏得勒支和約</t>
+    <t>乌得勒支和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B3%A2%E7%BE%8E%E6%8B%89%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>西波美拉尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>西里西亞</t>
+    <t>西里西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%BC%97%E9%87%8C%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>東弗里西亞</t>
+    <t>东弗里西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%99%AE%E9%AD%AF%E5%A3%AB%E7%9C%81</t>
   </si>
   <si>
-    <t>東普魯士省</t>
+    <t>东普鲁士省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>西普魯士</t>
+    <t>西普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E7%93%9C%E5%88%86%E6%B3%A2%E5%85%B0</t>
@@ -557,13 +551,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>新西里西亞</t>
+    <t>新西里西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>維也納會議</t>
+    <t>维也纳会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E5%85%B0%E7%99%BB%E5%A0%A1%E7%9C%81</t>
@@ -581,25 +575,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E4%BC%90%E5%80%AB%E7%9C%81</t>
   </si>
   <si>
-    <t>威斯伐倫省</t>
+    <t>威斯伐伦省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E8%8C%B5%E7%9C%81</t>
   </si>
   <si>
-    <t>萊茵省</t>
+    <t>莱茵省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB%E7%9C%81</t>
   </si>
   <si>
-    <t>普魯士省</t>
+    <t>普鲁士省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E4%BA%A8%E7%B4%A2%E5%80%AB%E7%9C%81</t>
   </si>
   <si>
-    <t>霍亨索倫省</t>
+    <t>霍亨索伦省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%8B%92%E8%8B%8F%E7%9B%8A%E6%A0%BC-%E8%8D%B7%E5%B0%94%E6%96%AF%E6%B3%B0%E5%9B%A0%E7%9C%81</t>
@@ -611,37 +605,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AB%BE%E5%A8%81%E7%9C%81</t>
   </si>
   <si>
-    <t>漢諾威省</t>
+    <t>汉诺威省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%A3%AE-%E6%8B%BF%E9%A8%B7</t>
   </si>
   <si>
-    <t>黑森-拿騷</t>
+    <t>黑森-拿骚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC%E6%A2%9D%E7%B4%84_%EF%BC%881866%E5%B9%B4%EF%BC%89</t>
   </si>
   <si>
-    <t>布拉格條約 （1866年）</t>
+    <t>布拉格条约 （1866年）</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB%E8%87%AA%E7%94%B1%E5%B7%9E</t>
   </si>
   <si>
-    <t>普魯士自由州</t>
+    <t>普鲁士自由州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%A5%BF%E9%87%8C%E8%A5%BF%E4%BA%9E%E7%9C%81</t>
   </si>
   <si>
-    <t>下西里西亞省</t>
+    <t>下西里西亚省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E7%88%BE%E8%B3%BD%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>凡爾賽條約</t>
+    <t>凡尔赛条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%A3%AE%E7%9C%81</t>
@@ -653,9 +647,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%9C%A3%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>神圣罗马帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%83%E7%9C%81</t>
   </si>
   <si>
@@ -719,9 +710,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E7%89%9B%E6%96%AF%E6%9D%A1%E7%BA%A6</t>
   </si>
   <si>
-    <t>比利牛斯条约</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E6%A2%85%E4%BA%A8%E6%9D%A1%E7%BA%A6</t>
   </si>
   <si>
@@ -731,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -755,13 +743,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3336,7 +3324,7 @@
         <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>6</v>
@@ -3362,10 +3350,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3391,10 +3379,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3420,10 +3408,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3449,10 +3437,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3478,10 +3466,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3507,10 +3495,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3536,10 +3524,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3565,10 +3553,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3594,10 +3582,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>5</v>
@@ -3623,10 +3611,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3652,10 +3640,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -3681,10 +3669,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3710,10 +3698,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3739,10 +3727,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3768,10 +3756,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3797,10 +3785,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3826,10 +3814,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>5</v>
@@ -3855,10 +3843,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -3884,10 +3872,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3913,10 +3901,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3942,10 +3930,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3971,10 +3959,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4000,10 +3988,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4029,10 +4017,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4058,10 +4046,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4087,10 +4075,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4116,10 +4104,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4145,10 +4133,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4174,10 +4162,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4203,10 +4191,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4232,10 +4220,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -4261,10 +4249,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4319,10 +4307,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4348,10 +4336,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4377,10 +4365,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4406,10 +4394,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4435,10 +4423,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4464,10 +4452,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4493,10 +4481,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>10</v>
@@ -4551,10 +4539,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4580,10 +4568,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4609,10 +4597,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4638,10 +4626,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4667,10 +4655,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -4696,10 +4684,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4725,10 +4713,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4754,10 +4742,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4783,10 +4771,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4812,10 +4800,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
